--- a/Courses/01 Fall 2023 - Term 1/MAS 632 - Management Science Models for Decision Making/Excel Files/Introduction to Optimization Simple Linear Program.xlsx
+++ b/Courses/01 Fall 2023 - Term 1/MAS 632 - Management Science Models for Decision Making/Excel Files/Introduction to Optimization Simple Linear Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd6fd30e1a3dec7d/Documents/Academics/03-Graduate/University of Miami/MSBA/Courses/01 Fall 2023 - Term 1/MAS 632 - Management Science Models for Decision Making/Excel Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd6fd30e1a3dec7d/Documents/Academics/03-Graduate/University of Miami/MSBA/Courses/ms-ba-um-notebooks/Courses/01 Fall 2023 - Term 1/MAS 632 - Management Science Models for Decision Making/Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="745" documentId="8_{3C37FDDF-D712-314A-9874-9EE7AF0107D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4464B63-D84E-4728-87C0-77DA29845C46}"/>
+  <xr:revisionPtr revIDLastSave="850" documentId="8_{3C37FDDF-D712-314A-9874-9EE7AF0107D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1903C4A-257D-EC4C-9076-F812A76F63C4}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="28845" windowHeight="15345" xr2:uid="{DC94574B-4A2E-4642-B5D9-7AA69FD3EC27}"/>
+    <workbookView xWindow="340" yWindow="760" windowWidth="29900" windowHeight="17440" activeTab="2" xr2:uid="{DC94574B-4A2E-4642-B5D9-7AA69FD3EC27}"/>
   </bookViews>
   <sheets>
     <sheet name="UPS Problem" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Scheduling!$A$6:$J$23</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Robust Predictions'!$G$7:$G$16</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Scheduling!$B$9:$F$9</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'UPS Problem'!$C$10:$D$10</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
@@ -27,7 +28,7 @@
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
@@ -36,16 +37,16 @@
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="2" hidden="1">'Robust Predictions'!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Robust Predictions'!$C$19:$C$21</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Robust Predictions'!$F$19:$F$21</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Scheduling!$G$14:$G$23</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'UPS Problem'!$C$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Robust Predictions'!$C$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Robust Predictions'!$G$21</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Scheduling!$G$14:$G$23</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'UPS Problem'!$C$17</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Robust Predictions'!$C$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Robust Predictions'!$G$22</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'UPS Problem'!$C$18</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'UPS Problem'!$C$19</definedName>
-    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -66,11 +67,12 @@
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Robust Predictions'!$F$22</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Scheduling!$B$10</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'UPS Problem'!$C$11</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
@@ -90,13 +92,13 @@
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs0" localSheetId="2" hidden="1">'Robust Predictions'!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Robust Predictions'!$B$19:$B$21</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Robust Predictions'!$G$19:$G$21</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">Scheduling!$H$14:$H$23</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'UPS Problem'!$E$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Robust Predictions'!$B$21</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Robust Predictions'!$F$21</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">Scheduling!$H$14:$H$23</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'UPS Problem'!$E$17</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Robust Predictions'!$B$22</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Robust Predictions'!$F$22</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'UPS Problem'!$E$18</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'UPS Problem'!$E$19</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -151,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>UPS Problem</t>
   </si>
@@ -316,16 +318,26 @@
   </si>
   <si>
     <t>Staffing Cost/agent</t>
+  </si>
+  <si>
+    <t>Robust Predictions (Max)</t>
+  </si>
+  <si>
+    <t>Robust Predictions (Min)</t>
+  </si>
+  <si>
+    <t>based on our robost analysis 0.1111&lt;=Pr(D&gt;=8) &lt;= .2698</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,6 +432,11 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Anonymous Pro Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Anonymous Pro Regular"/>
     </font>
   </fonts>
@@ -538,7 +555,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -626,6 +643,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,29 +712,17 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -723,10 +743,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,65 +1044,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181B0726-EAF3-8044-B71A-3570ED1A189D}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1"/>
-    <col min="2" max="2" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="1"/>
+    <col min="2" max="2" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+    <row r="1" spans="1:5" ht="34">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" customFormat="1" ht="27">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="27">
+      <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" ht="27">
+      <c r="A4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="13"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
@@ -1097,7 +1113,7 @@
       </c>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -1110,7 +1126,7 @@
       </c>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1123,7 +1139,7 @@
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
@@ -1138,7 +1154,7 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="27">
       <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>10</v>
@@ -1151,19 +1167,19 @@
       </c>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="27">
       <c r="A11" s="13"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="40">
         <f>(C10*C7)+(D7*D10)</f>
         <v>489.99999666666662</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1181,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4">
         <v>0</v>
       </c>
@@ -1198,7 +1214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="42">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1215,7 +1231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -1233,7 +1249,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -1251,7 +1267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -1269,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" customFormat="1">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1315,77 +1331,77 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="7.5546875" style="17"/>
+    <col min="10" max="10" width="16.7109375" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="7.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:8" ht="34">
+      <c r="A1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" ht="27">
+      <c r="A2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-    </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" ht="27">
+      <c r="A4" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" s="18" customFormat="1" ht="15"/>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="B6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:8" s="21" customFormat="1" ht="15">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
         <v>47</v>
@@ -1403,7 +1419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="22" t="s">
         <v>54</v>
       </c>
@@ -1423,7 +1439,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -1443,20 +1459,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="27">
       <c r="A10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="41">
         <f>SUMPRODUCT(B8:F8, B9:F9)</f>
         <v>30610</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:8" ht="15">
       <c r="B11" s="24"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1464,16 +1480,16 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="40" t="s">
+    <row r="12" spans="1:8">
+      <c r="B12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-    </row>
-    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="26" t="s">
         <v>32</v>
       </c>
@@ -1499,7 +1515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="27" t="s">
         <v>26</v>
       </c>
@@ -1526,7 +1542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
@@ -1553,7 +1569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="27" t="s">
         <v>24</v>
       </c>
@@ -1580,7 +1596,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
@@ -1607,7 +1623,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="27" t="s">
         <v>28</v>
       </c>
@@ -1634,7 +1650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="27" t="s">
         <v>27</v>
       </c>
@@ -1661,7 +1677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="27" t="s">
         <v>26</v>
       </c>
@@ -1688,7 +1704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="27" t="s">
         <v>25</v>
       </c>
@@ -1715,7 +1731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="27" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="27" t="s">
         <v>23</v>
       </c>
@@ -1786,198 +1802,428 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729D829A-1203-1141-8D9C-31C2D3F625F7}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="7.5546875" style="50"/>
+    <col min="1" max="1" width="19.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="32"/>
+    <col min="5" max="5" width="19.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.5703125" style="32"/>
+    <col min="10" max="10" width="26.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="7.5703125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="49" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-    </row>
-    <row r="2" spans="1:3" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+    <row r="1" spans="1:7" s="31" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="E1" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" s="31" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-    </row>
-    <row r="3" spans="1:3" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="E2" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" s="31" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-    </row>
-    <row r="4" spans="1:3" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="E3" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:7" s="31" customFormat="1" ht="27">
+      <c r="A4" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="E4" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="54" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
-        <v>1</v>
-      </c>
-      <c r="B7" s="51">
+      <c r="E6" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="33">
         <f t="shared" ref="B7:B16" si="0">A7^2</f>
         <v>1</v>
       </c>
-      <c r="C7" s="52"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="51">
+      <c r="C7" s="56">
+        <v>0.72222222222222243</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" ref="F7:F16" si="1">E7^2</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="56">
+        <v>0.73015873015873034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="52"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
+      <c r="C8" s="56">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33">
+        <v>2</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="33">
         <v>3</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C9" s="52"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="51">
+      <c r="C9" s="56">
+        <v>0</v>
+      </c>
+      <c r="E9" s="33">
+        <v>3</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="33">
         <v>4</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C10" s="52"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
+      <c r="C10" s="56">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33">
+        <v>4</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="33">
         <v>5</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="33">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C11" s="52"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="51">
+      <c r="C11" s="56">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
+        <v>5</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G11" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="33">
         <v>6</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="33">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C12" s="52"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="51">
+      <c r="C12" s="56">
+        <v>0</v>
+      </c>
+      <c r="E12" s="33">
+        <v>6</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G12" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="33">
         <v>7</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="33">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C13" s="52"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="51">
+      <c r="C13" s="56">
+        <v>0.16666666666666655</v>
+      </c>
+      <c r="E13" s="33">
+        <v>7</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G13" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="33">
         <v>8</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="33">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C14" s="52"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
+      <c r="C14" s="56">
+        <v>0</v>
+      </c>
+      <c r="E14" s="33">
+        <v>8</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G14" s="56">
+        <v>0.21428571428571414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="33">
         <v>9</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="33">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C15" s="52"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51">
+      <c r="C15" s="56">
+        <v>0</v>
+      </c>
+      <c r="E15" s="33">
+        <v>9</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G15" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="33">
         <v>10</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="33">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C16" s="52"/>
-    </row>
-    <row r="17" spans="1:3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="51" t="s">
+      <c r="C16" s="56">
+        <v>0.11111111111111117</v>
+      </c>
+      <c r="E16" s="33">
+        <v>10</v>
+      </c>
+      <c r="F16" s="33">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="56">
+        <v>5.5555555555555657E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" ht="13.5" customHeight="1">
+      <c r="B18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="54" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="F18" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15">
+      <c r="A19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="B19" s="34">
+        <f>SUMPRODUCT(A7:A16, C7:C16)</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="34">
+        <v>3</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="34">
+        <f>SUMPRODUCT(E7:E16, G7:G16)</f>
+        <v>3</v>
+      </c>
+      <c r="G19" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15">
+      <c r="A20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="B20" s="34">
+        <f>SUMPRODUCT(B7:B16, C7:C16)</f>
+        <v>20</v>
+      </c>
+      <c r="C20" s="34">
+        <v>20</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="34">
+        <f>SUMPRODUCT(F7:F16, G7:G16)</f>
+        <v>20</v>
+      </c>
+      <c r="G20" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15">
+      <c r="A21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
+      <c r="B21" s="34">
+        <f>SUM(C7:C16)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C21" s="34">
+        <v>1</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="34">
+        <f>SUM(G7:G16)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15">
+      <c r="A22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="55">
+        <f>SUM(C14:C16)</f>
+        <v>0.11111111111111117</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="55">
+        <f>SUM(G14:G16)</f>
+        <v>0.26984126984126977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15">
+      <c r="B24" s="57" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
